--- a/Document/对接数据/变量表.xlsx
+++ b/Document/对接数据/变量表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\花旗杯\OptAdvisor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\OptAdvisor\Document\对接数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{12236F2F-100D-4D67-8200-E9E2E4CE0E1D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9090" windowHeight="7410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9096" windowHeight="7416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,7 +540,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1000,7 +1001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,6 +1082,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1415,45 +1419,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
-    <col min="14" max="14" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35"/>
-    </row>
-    <row r="2" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+    </row>
+    <row r="2" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1493,13 +1497,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="3"/>
       <c r="F3" s="7" t="s">
         <v>69</v>
@@ -1527,7 +1531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>106</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
@@ -1607,7 +1611,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1621,12 +1625,12 @@
         <v>8</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="2"/>
       <c r="K6" s="21" t="s">
         <v>90</v>
@@ -1641,7 +1645,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
@@ -1673,7 +1677,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
@@ -1705,7 +1709,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>12</v>
       </c>
@@ -1737,7 +1741,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>113</v>
       </c>
@@ -1756,20 +1760,20 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="36" t="s">
+      <c r="K10" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="39"/>
+    </row>
+    <row r="11" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1789,7 +1793,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="51.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>117</v>
       </c>
@@ -1821,7 +1825,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
@@ -1853,7 +1857,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>18</v>
       </c>
@@ -1885,7 +1889,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -1917,7 +1921,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
@@ -1949,7 +1953,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -1964,7 +1968,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="13"/>
@@ -1981,7 +1985,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="69" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="78" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>26</v>
       </c>
@@ -2013,7 +2017,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="69" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>28</v>
       </c>
@@ -2045,7 +2049,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="69" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>29</v>
       </c>
@@ -2069,7 +2073,7 @@
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
     </row>
-    <row r="21" spans="1:14" ht="69" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>30</v>
       </c>
@@ -2093,7 +2097,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>125</v>
       </c>
@@ -2117,13 +2121,13 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
+    <row r="23" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2135,7 +2139,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>31</v>
       </c>
@@ -2159,7 +2163,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" ht="51.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>149</v>
       </c>
@@ -2183,7 +2187,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" ht="51.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>151</v>
       </c>
@@ -2207,7 +2211,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" ht="51.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>34</v>
       </c>
@@ -2231,7 +2235,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>81</v>
       </c>
@@ -2255,7 +2259,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" ht="51.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>83</v>
       </c>
@@ -2279,7 +2283,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>128</v>
       </c>
@@ -2303,7 +2307,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>85</v>
       </c>
@@ -2327,7 +2331,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>35</v>
       </c>
@@ -2351,7 +2355,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>38</v>
       </c>
@@ -2375,7 +2379,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
@@ -2399,7 +2403,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>40</v>
       </c>
@@ -2423,7 +2427,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>44</v>
       </c>
@@ -2447,7 +2451,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>46</v>
       </c>
@@ -2471,13 +2475,13 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2489,7 +2493,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>48</v>
       </c>
@@ -2513,7 +2517,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>50</v>
       </c>
@@ -2537,7 +2541,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>52</v>
       </c>
@@ -2561,7 +2565,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>53</v>
       </c>
@@ -2585,13 +2589,13 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27" t="s">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2603,7 +2607,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>55</v>
       </c>
@@ -2627,7 +2631,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>58</v>
       </c>
@@ -2651,7 +2655,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" ht="51.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>130</v>
       </c>
@@ -2675,7 +2679,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>61</v>
       </c>
@@ -2699,7 +2703,7 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2715,7 +2719,7 @@
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2731,7 +2735,7 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2747,7 +2751,7 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2763,7 +2767,7 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2779,7 +2783,7 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2795,7 +2799,7 @@
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2811,7 +2815,7 @@
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2827,7 +2831,7 @@
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2843,7 +2847,7 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2859,7 +2863,7 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
